--- a/test-code-generator/Evaluation/QuantitativeEvaluation/11/UC3.4_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/11/UC3.4_TC1.xlsx
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>0.2093277531430746</v>
+        <v>0.1902584951434026</v>
       </c>
       <c r="C11" s="3" t="n"/>
       <c r="D11" s="7" t="inlineStr">
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3325175104416962</v>
+        <v>0.3556023046779966</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.3325175104416962, 'ngram_match_score': 0.2093277531430746, 'weighted_ngram_match_score': 0.21924727201241462, 'syntax_match_score': 0.5642857142857143, 'dataflow_match_score': 0.3372093023255814}</t>
+          <t>{'codebleu': 0.3556023046779966, 'ngram_match_score': 0.1902584951434026, 'weighted_ngram_match_score': 0.2027487302131021, 'syntax_match_score': 0.5642857142857143, 'dataflow_match_score': 0.46511627906976744}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0.9133313774258236</v>
+        <v>0.9014018910120881</v>
       </c>
       <c r="C13" s="3" t="n"/>
       <c r="D13" s="3" t="inlineStr">
